--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,7 +10,7 @@
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$F$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,77 +22,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
-  <si>
-    <t>机动参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机动参数2</t>
-  </si>
-  <si>
-    <t>机动参数3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motorized_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motorized_2</t>
-  </si>
-  <si>
-    <t>motorized_3</t>
-  </si>
-  <si>
-    <t>攻击速度参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度参数2</t>
-  </si>
-  <si>
-    <t>攻击速度参数3</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkSpeed_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkSpeed_2</t>
-  </si>
-  <si>
-    <t>atkSpeed_3</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填装速度参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reloadSpeed_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maintenanceArg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40;0|60;0.3|80;0.5|100;0.8|200;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[@;_]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chipDiskExtensions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1.5;2;2.5;3;3.5;4;4.5;5;5.5;6;6.5;7;7.5;8;8.5;9;9.5;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorizedFormula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动时间流逝公式(玩家每走1米的时间流逝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击时间流逝公式(玩家每近战攻击1次的时间流逝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeedFormula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填装速度时间流逝公式(使用技能最终消耗的时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reloadSpeedFormula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(p_motorized+100)/(p_motorized+101))*50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(p_atkSpeed+100)/(p_atkSpeed+101))*15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[u_skillTime*100/(p_reloadSpeed+100)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,30 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40;0|60;0.3|80;0.5|100;0.8|200;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[@;_]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chipDiskExtensions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[;]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;1.5;2;2.5;3;3.5;4;4.5;5;5.5;6;6.5;7;7.5;8;8.5;9;9.5;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>[3维]</t>
     </r>
@@ -147,10 +135,6 @@
       </rPr>
       <t>芯片盘扩展费用。第一维对应各个角色(所以扩展费用也是角色之间的重大区别)；第二维其元素序号对应扩展次数，如果扩展次数大于了元素个数，那么使用最后一个元素作为扩展费用系数；第三维3个元素，分别代表扩展需要的3种材料：金属（Stuff.Coherer），有机物（Stuff.Organics），生命核心（Stuff.Core），不需要灵魂这种材料。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costRatio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -174,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +197,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -276,11 +276,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -557,153 +573,111 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.625" customWidth="1"/>
-    <col min="9" max="9" width="78.5" customWidth="1"/>
-    <col min="10" max="10" width="52" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="53.875" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="85.625" customWidth="1"/>
+    <col min="5" max="5" width="78.5" customWidth="1"/>
+    <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J4"/>
+  <autoFilter ref="A3:F4"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -24,10 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,47 +60,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>motorizedFormula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动时间流逝公式(玩家每走1米的时间流逝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击时间流逝公式(玩家每近战攻击1次的时间流逝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeedFormula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填装速度时间流逝公式(使用技能最终消耗的时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reloadSpeedFormula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(p_motorized+100)/(p_motorized+101))*50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(p_atkSpeed+100)/(p_atkSpeed+101))*15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[u_skillTime*100/(p_reloadSpeed+100)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motorizedFormula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机动时间流逝公式(玩家每走1米的时间流逝)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战攻击时间流逝公式(玩家每近战攻击1次的时间流逝)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkSpeedFormula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填装速度时间流逝公式(使用技能最终消耗的时间)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reloadSpeedFormula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(p_motorized+100)/(p_motorized+101))*50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(p_atkSpeed+100)/(p_atkSpeed+101))*15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[u_skillTime*100/(p_reloadSpeed+100)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,6 +147,10 @@
       </rPr>
       <t>芯片费用提升。在同一个维护站升级芯片盘时，费用会越来越高。这是一个记录每次升级提高倍率的系数数组，在同一个维护站升级芯片盘时，最终消耗的材料除了chipDiskExtensions表示的数量之外，还要乘以该值（取chipDiskExtensions的三种材料消耗，分别乘以costRatio[重复升级次数]）。同样，当升级次数超出该数组长度，取最后一个值参与计算。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +284,18 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -576,7 +587,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,82 +602,82 @@
   <sheetData>
     <row r="1" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -84,18 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※rpn[(1-(p_motorized+100)/(p_motorized+101))*50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(p_atkSpeed+100)/(p_atkSpeed+101))*15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[u_skillTime*100/(p_reloadSpeed+100)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +139,18 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(s_atkSpeed+100)/(s_atkSpeed+101))*15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[skillTime*100/(s_reloadSpeed+100)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,18 +284,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -587,7 +576,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,24 +600,24 @@
         <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -662,13 +651,13 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -576,7 +576,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机动时间流逝公式(玩家每走1米的时间流逝)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>近战攻击时间流逝公式(玩家每近战攻击1次的时间流逝)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +147,10 @@
   </si>
   <si>
     <t>※rpn[skillTime*100/(s_reloadSpeed+100)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动时间流逝公式 (玩家每走1米的时间流逝)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,9 +575,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -591,33 +589,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -634,10 +632,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
@@ -651,13 +649,13 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,6 @@
   </si>
   <si>
     <t>reloadSpeedFormula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +139,10 @@
   </si>
   <si>
     <t>机动时间流逝公式 (玩家每走1米的时间流逝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[,]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +567,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -589,7 +583,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -598,24 +592,24 @@
         <v>12</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -649,13 +643,13 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -126,23 +126,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>※rpn[(1-(s_atkSpeed+100)/(s_atkSpeed+101))*15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[skillTime*100/(s_reloadSpeed+100)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动时间流逝公式 (玩家每走1米的时间流逝)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[,]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(s_atkSpeed+100)/(s_atkSpeed+101))*15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[skillTime*100/(s_reloadSpeed+100)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机动时间流逝公式 (玩家每走1米的时间流逝)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long[,]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,7 +583,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -603,13 +603,13 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chipDiskExtensions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +139,10 @@
   </si>
   <si>
     <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,8 +567,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -583,33 +583,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -618,47 +618,47 @@
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
+    <sheet name="tips" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,12 +147,48 @@
     <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有存在的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficient_resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需资源不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +247,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -251,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -272,11 +317,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -567,8 +662,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -668,6 +763,74 @@
   <autoFilter ref="A3:F4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:F3">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:B5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:B3">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="tips" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,28 +63,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>近战攻击时间流逝公式(玩家每近战攻击1次的时间流逝)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atkSpeedFormula</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填装速度时间流逝公式(使用技能最终消耗的时间)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reloadSpeedFormula</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[2维]</t>
+    <t>※rpn[(1-(s_atkSpeed+100)/(s_atkSpeed+101))*15]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[skillTime*100/(s_reloadSpeed+100)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[,]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有存在的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deficient_resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需资源不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片盘初始半径，每个角色都是一样的，所以这里只有一个值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片盘最大宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片盘最大高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxUpdateCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大升级次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[1维]</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机动时间流逝公式 (玩家每走1米的时间流逝)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[1维]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>近战攻击时间流逝公式(玩家每近战攻击1次的时间流逝)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[1维]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填装速度时间流逝公式(使用技能最终消耗的时间)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[2维]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -99,6 +233,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -114,73 +249,13 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>芯片费用提升。在同一个维护站升级芯片盘时，费用会越来越高。这是一个记录每次升级提高倍率的系数数组，在同一个维护站升级芯片盘时，最终消耗的材料除了chipDiskExtensions表示的数量之外，还要乘以该值（取chipDiskExtensions的三种材料消耗，分别乘以costRatio[重复升级次数]）。同样，当升级次数超出该数组长度，取最后一个值参与计算。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(s_atkSpeed+100)/(s_atkSpeed+101))*15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[skillTime*100/(s_reloadSpeed+100)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机动时间流逝公式 (玩家每走1米的时间流逝)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long[,]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有存在的目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deficient_resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需资源不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,11 +371,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -323,22 +395,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -660,10 +730,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -674,96 +744,148 @@
     <col min="4" max="4" width="85.625" customWidth="1"/>
     <col min="5" max="5" width="78.5" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F4"/>
+  <autoFilter ref="A3:J4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:F3">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="A3:J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -774,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -785,43 +907,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>25</v>
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -831,7 +953,7 @@
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="tips" sheetId="2" r:id="rId2"/>
+    <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +258,69 @@
       </rPr>
       <t>芯片费用提升。在同一个维护站升级芯片盘时，费用会越来越高。这是一个记录每次升级提高倍率的系数数组，在同一个维护站升级芯片盘时，最终消耗的材料除了chipDiskExtensions表示的数量之外，还要乘以该值（取chipDiskExtensions的三种材料消耗，分别乘以costRatio[重复升级次数]）。同样，当升级次数超出该数组长度，取最后一个值参与计算。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>effectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物翻开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物翻开后需要有一个比较弱的特效，表示有怪物被翻开，因为我们游戏怪物存在警戒范围，如果没有该效果，就会出现怪物隔空翻开的情况。该效果可以是诸如一个红色叹号闪过（约0.3s）之后才翻开格子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叫醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物在翻开和死亡时，允许唤醒附近的其他怪物，需要有特效表现。该效果类似扩散是空气波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家近战除了特效之外还需要“动作”搭配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的近战特效最好与玩家区别开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤痛记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在玩家血条上出现的特效，表示此时收到的伤害将会被储存</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +473,40 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -732,7 +830,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -885,7 +983,7 @@
   <autoFilter ref="A3:J4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -950,12 +1048,117 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="0.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:B9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$K$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$9</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>在玩家血条上出现的特效，表示此时收到的伤害将会被储存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/回合比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,18 +485,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -828,10 +829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,9 +847,10 @@
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -879,8 +881,11 @@
       <c r="J1" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -911,8 +916,11 @@
       <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="K2" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -943,8 +951,11 @@
       <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -975,15 +986,18 @@
       <c r="J4" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="K4" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J4"/>
+  <autoFilter ref="A3:K4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:J3">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="A3:K3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1048,10 +1062,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1062,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -1154,10 +1168,10 @@
   <autoFilter ref="A3:B9"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -485,7 +485,403 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -831,8 +1227,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -997,7 +1393,7 @@
   <autoFilter ref="A3:K4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:K3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1006,10 +1402,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1062,10 +1459,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1074,6 +1471,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1168,10 +1566,10 @@
   <autoFilter ref="A3:B9"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3480" yWindow="1600" windowWidth="16240" windowHeight="23420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,12 +338,32 @@
     <t>timeRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>格子翻开</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugong_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +429,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -421,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -444,11 +478,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -481,407 +526,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1004,7 +656,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1039,7 +691,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1216,7 +868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,29 +876,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="53.875" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="85.625" customWidth="1"/>
-    <col min="5" max="5" width="78.5" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="85.5703125" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="210" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -1281,7 +933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1316,7 +968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1003,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1386,36 +1038,41 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15">
       <c r="B10" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:K3">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1423,7 +1080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1439,7 +1096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1447,7 +1104,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1459,32 +1116,38 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D9"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="0.75" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1155,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -1500,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1508,7 +1171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1517,7 +1180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1526,7 +1189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1535,25 +1198,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1562,15 +1229,28 @@
         <v>55</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="14">
+      <c r="A10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:B9"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A9">
-    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+  <conditionalFormatting sqref="A4:A10">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1600" windowWidth="16240" windowHeight="23420" activeTab="2"/>
+    <workbookView xWindow="3480" yWindow="1605" windowWidth="16245" windowHeight="23415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$K$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -339,31 +339,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>格子翻开</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>open_box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pugong_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子翻开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,17 +421,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Abadi MT Condensed Extra Bold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -455,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -478,22 +459,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -526,14 +496,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -868,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -876,29 +854,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85.5703125" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="53.875" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="85.625" customWidth="1"/>
+    <col min="5" max="5" width="78.375" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="210" customHeight="1">
+    <row r="1" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -933,7 +911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -968,7 +946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +981,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1038,14 +1016,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:K3">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1059,20 +1037,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +1058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1088,7 +1066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1096,7 +1074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1104,7 +1082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1116,10 +1094,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="4" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1133,21 +1111,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="0.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -1163,7 +1141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1171,7 +1149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1180,7 +1158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1189,7 +1167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
@@ -1198,29 +1176,29 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
@@ -1229,24 +1207,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B9"/>
+  <autoFilter ref="A3:B10"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A10">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1605" windowWidth="16245" windowHeight="23415" activeTab="2"/>
+    <workbookView xWindow="12140" yWindow="3600" windowWidth="16240" windowHeight="23420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,12 +350,76 @@
     <t>格子翻开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>格子怪物提示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>格子宝物提示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_rich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dead_monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wake_up_monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pain_blood_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>翻开飞虫</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +485,17 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -436,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -459,11 +534,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA0A0A0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA0A0A0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -496,11 +582,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -846,7 +946,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -854,29 +954,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="53.875" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="85.625" customWidth="1"/>
-    <col min="5" max="5" width="78.375" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="85.5703125" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="210" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -911,7 +1011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -946,7 +1046,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -981,7 +1081,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1016,14 +1116,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="15">
       <c r="B10" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:K3">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1037,20 +1137,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1058,7 +1158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1066,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +1182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1094,10 +1194,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="5" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1111,21 +1211,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D10"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="0.75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -1133,7 +1233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -1141,7 +1241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1149,34 +1249,40 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1187,7 +1293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1198,34 +1304,60 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14">
+      <c r="A11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14">
+      <c r="A12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14">
+      <c r="A13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:B10"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A10">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="A4:A13">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="3600" windowWidth="16240" windowHeight="23420" activeTab="2"/>
+    <workbookView xWindow="12135" yWindow="3600" windowWidth="16245" windowHeight="23415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -14,23 +14,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$K$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$14</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,34 +351,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>格子怪物提示</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tip_danger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>格子宝物提示</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tip_rich</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,27 +375,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>翻开飞虫</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>open_bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子怪物提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子宝物提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻开飞虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家中缴械（不能释放主动技能）状态后，所有位于屏幕下方的主动技能图标上，附加一个特效，表示该技能现在不能使用（点击无效）。通常是一个X形状的锁链</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,17 +469,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Abadi MT Condensed Extra Bold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -511,7 +484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -534,22 +507,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA0A0A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA0A0A0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -582,25 +544,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -946,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,29 +902,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85.5703125" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="53.875" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="85.625" customWidth="1"/>
+    <col min="5" max="5" width="78.375" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="210" customHeight="1">
+    <row r="1" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -1011,7 +959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +994,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1081,7 +1029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1116,14 +1064,14 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:K4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:K3">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1137,20 +1085,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -1158,7 +1106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -1166,7 +1114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1174,7 +1122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1194,10 +1142,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="6" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1211,21 +1159,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:D13"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="0.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
@@ -1233,7 +1181,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -1241,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1249,40 +1197,40 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -1293,7 +1241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1304,18 +1252,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
@@ -1323,41 +1271,50 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14">
-      <c r="A12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14">
-      <c r="A13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B10"/>
+  <autoFilter ref="A3:B14"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A13">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="A4:A14">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$K$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,14 @@
   </si>
   <si>
     <t>玩家中缴械（不能释放主动技能）状态后，所有位于屏幕下方的主动技能图标上，附加一个特效，表示该技能现在不能使用（点击无效）。通常是一个X形状的锁链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡是自爆状态(Explode)起效爆炸时，播放该特效，并且替代怪物原本的死亡特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,10 +1168,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1304,10 +1312,19 @@
         <v>73</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:B14"/>
+  <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A14">
+  <conditionalFormatting sqref="A4:A15">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="3600" windowWidth="16245" windowHeight="23415" activeTab="2"/>
+    <workbookView xWindow="12135" yWindow="3600" windowWidth="16245" windowHeight="23415"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$K$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$L$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,33 @@
   <si>
     <t>凡是自爆状态(Explode)起效爆炸时，播放该特效，并且替代怪物原本的死亡特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulong[;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copySkills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[1维]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>召唤物允许复制的技能列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000001;1000002;1000003;1000004;1000005;1000006;1000007;1000014;1000015;1000016</t>
   </si>
 </sst>
 </file>
@@ -556,7 +583,29 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -911,10 +960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -930,9 +979,10 @@
     <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="93.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
@@ -966,8 +1016,11 @@
       <c r="K1" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1054,11 @@
       <c r="K2" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="L2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1036,8 +1092,11 @@
       <c r="K3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L3" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1071,15 +1130,18 @@
       <c r="K4" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:K4"/>
+  <autoFilter ref="A3:L4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:K3">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  <conditionalFormatting sqref="A3:L3">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1150,10 +1212,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="5" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1170,8 +1232,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1325,10 +1387,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -169,54 +169,6 @@
   </si>
   <si>
     <r>
-      <t>[1维]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机动时间流逝公式 (玩家每走1米的时间流逝)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[1维]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>近战攻击时间流逝公式(玩家每近战攻击1次的时间流逝)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[1维]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填装速度时间流逝公式(使用技能最终消耗的时间)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>[2维]</t>
     </r>
     <r>
@@ -433,12 +385,80 @@
   <si>
     <t>1000001;1000002;1000003;1000004;1000005;1000006;1000007;1000014;1000015;1000016</t>
   </si>
+  <si>
+    <r>
+      <t>[1维]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填装速度回合流逝公式(使用技能最终消耗的回合)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[1维]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>近战攻击回合流逝公式(玩家每近战攻击1次的回合流逝)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[1维]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机动回合流逝公式 (玩家每走1米的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流逝)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +520,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -583,51 +610,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -960,10 +943,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -984,22 +967,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>27</v>
@@ -1014,10 +997,10 @@
         <v>33</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1052,10 +1035,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1090,10 +1073,10 @@
         <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1128,23 +1111,34 @@
         <v>8</v>
       </c>
       <c r="K4" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>(1-(A17+100)/(A17+101))*80</f>
+        <v>0.78431372549019329</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:L4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:L3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1212,10 +1206,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="7" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1245,15 +1239,15 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>17</v>
@@ -1264,133 +1258,133 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1"/>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -12,7 +12,7 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$M$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间/回合比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>timeRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -451,6 +447,18 @@
       </rPr>
       <t>流逝)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/回合比例（移动速度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间/回合比例（卷动速度）。1表示每回合流逝，地图卷动需要1秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +951,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -962,18 +970,19 @@
     <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="93.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="13" max="13" width="93.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>34</v>
@@ -997,13 +1006,16 @@
         <v>33</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1038,10 +1050,13 @@
         <v>53</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1073,13 +1088,16 @@
         <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -1113,11 +1131,14 @@
       <c r="K4" s="3">
         <v>0.2</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1132,9 +1153,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L4"/>
+  <autoFilter ref="A3:M4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:L3">
+  <conditionalFormatting sqref="A3:M3">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1266,7 +1287,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
@@ -1277,7 +1298,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -1288,7 +1309,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1299,7 +1320,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -1310,7 +1331,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1321,7 +1342,7 @@
         <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -1329,52 +1350,52 @@
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1"/>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -88,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,15 +446,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间/回合比例（移动速度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>roundRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间/回合比例（卷动速度）。1表示每回合流逝，地图卷动需要1秒</t>
+    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*80]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家移动速度，该值越大，玩家移动越快。它不应该影响原本的回合流逝，比如玩家移动一格流逝1回合的话，不论该值为多少，都是流逝1回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图卷动时间，该值越小，地图卷动越快。1表示每回合地图卷动需要1秒。它不会影响玩家移动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,7 +954,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -969,50 +969,50 @@
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="30.875" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
     <col min="13" max="13" width="93.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>81</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -1035,25 +1035,25 @@
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
@@ -1076,30 +1076,30 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -1129,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="K4" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
         <v>1</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
@@ -1143,13 +1143,13 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>(1-(A17+100)/(A17+101))*80</f>
-        <v>0.78431372549019329</v>
+        <v>0.79207920792079278</v>
       </c>
     </row>
   </sheetData>
@@ -1185,42 +1185,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1260,142 +1260,142 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1"/>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1"/>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12135" yWindow="3600" windowWidth="16245" windowHeight="23415"/>
+    <workbookView xWindow="4760" yWindow="5900" windowWidth="26200" windowHeight="16920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,21 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,11 +461,19 @@
     <t>地图卷动时间，该值越小，地图卷动越快。1表示每回合地图卷动需要1秒。它不会影响玩家移动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>fx_jiaoxie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_zibao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,7 +624,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -942,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,31 +958,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="53.875" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="85.625" customWidth="1"/>
-    <col min="5" max="5" width="78.375" customWidth="1"/>
+    <col min="1" max="1" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="85.5703125" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.875" customWidth="1"/>
-    <col min="12" max="12" width="29.375" customWidth="1"/>
-    <col min="13" max="13" width="93.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" customWidth="1"/>
+    <col min="13" max="13" width="93.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="210" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>77</v>
       </c>
@@ -1015,7 +1023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1056,7 +1064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="6" t="s">
         <v>79</v>
       </c>
@@ -1138,15 +1146,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15">
       <c r="B10" s="5"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <f>(1-(A17+100)/(A17+101))*80</f>
         <v>0.79207920792079278</v>
@@ -1159,7 +1167,7 @@
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1170,20 +1178,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1199,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1244,21 +1252,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="0.75" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -1274,7 +1282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1293,7 +1301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1315,7 +1323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1326,7 +1334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1337,7 +1345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1348,7 +1356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
@@ -1364,7 +1372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -1372,7 +1380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -1380,20 +1388,24 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D15" t="s">
         <v>70</v>
       </c>
@@ -1408,7 +1420,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="5900" windowWidth="26200" windowHeight="16920" activeTab="2"/>
+    <workbookView xWindow="4755" yWindow="5895" windowWidth="26205" windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -450,30 +450,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*80]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家移动速度，该值越大，玩家移动越快。它不应该影响原本的回合流逝，比如玩家移动一格流逝1回合的话，不论该值为多少，都是流逝1回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图卷动时间，该值越小，地图卷动越快。1表示每回合地图卷动需要1秒。它不会影响玩家移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fx_jiaoxie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fx_zibao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图卷动速度，该值越大，地图卷动越快。1表示每回合地图卷动需要1秒。它不会影响玩家移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家移动1格的时间，该值越小，玩家移动越快。它不应该影响原本的回合流逝，比如玩家移动一格流逝1回合的话，不论该值为多少，都是流逝1回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,7 +624,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -950,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -958,31 +958,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85.5703125" customWidth="1"/>
-    <col min="5" max="5" width="78.42578125" customWidth="1"/>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="53.875" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="85.625" customWidth="1"/>
+    <col min="5" max="5" width="78.375" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" customWidth="1"/>
-    <col min="13" max="13" width="93.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.875" customWidth="1"/>
+    <col min="12" max="12" width="29.375" customWidth="1"/>
+    <col min="13" max="13" width="93.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="210" customHeight="1">
+    <row r="1" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>77</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>32</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>81</v>
@@ -1023,7 +1023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1105,9 +1105,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L4" s="3">
         <v>1</v>
@@ -1146,18 +1146,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>(1-(A17+100)/(A17+101))*80</f>
-        <v>0.79207920792079278</v>
+        <f>(1-(A17+100)/(A17+101))*50</f>
+        <v>0.49504950495049549</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1167,7 @@
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1178,20 +1178,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1252,21 +1252,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="0.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16">
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16">
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -1388,23 +1388,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -466,7 +466,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*50]</t>
+    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,7 +962,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1140,7 @@
         <v>0.1</v>
       </c>
       <c r="L4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>74</v>
@@ -1156,8 +1156,8 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f>(1-(A17+100)/(A17+101))*50</f>
-        <v>0.49504950495049549</v>
+        <f>(1-(A17+100)/(A17+101))*30</f>
+        <v>0.29702970297029729</v>
       </c>
     </row>
   </sheetData>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -12,7 +12,7 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$M$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$P$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>roundRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_jiaoxie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_zibao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图卷动速度，该值越大，地图卷动越快。1表示每回合地图卷动需要1秒。它不会影响玩家移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家移动1格的时间，该值越小，玩家移动越快。它不应该影响原本的回合流逝，比如玩家移动一格流逝1回合的话，不论该值为多少，都是流逝1回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段宝箱距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>[1维]</t>
     </r>
@@ -421,17 +449,37 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>机动回合流逝公式 (玩家每走1米的</t>
+      <t>机动回合流逝公式 (玩家每走1米的回合流逝)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙距离数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoulReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[,;]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[journey/10];※rpn[journey/10*2];※rpn[journey/10*3];※rpn[journey/10*4];※rpn[journey/10*5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合</t>
+      <t>[2维]</t>
     </r>
     <r>
       <rPr>
@@ -441,32 +489,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>流逝)</t>
+      <t>大宝箱灵魂奖励，有5个值，分别对应1~5把钥匙。Journey为玩家当前的行走距离</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roundRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fx_jiaoxie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fx_zibao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图卷动速度，该值越大，地图卷动越快。1表示每回合地图卷动需要1秒。它不会影响玩家移动速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家移动1格的时间，该值越小，玩家移动越快。它不应该影响原本的回合流逝，比如玩家移动一格流逝1回合的话，不论该值为多少，都是流逝1回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,13 +560,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -626,7 +643,40 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -959,10 +1009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,11 +1030,13 @@
     <col min="11" max="11" width="30.875" customWidth="1"/>
     <col min="12" max="12" width="29.375" customWidth="1"/>
     <col min="13" max="13" width="93.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>76</v>
@@ -1014,16 +1066,25 @@
         <v>32</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1063,8 +1124,17 @@
       <c r="M2" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="N2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1099,15 +1169,24 @@
         <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1145,8 +1224,17 @@
       <c r="M4" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="N4" s="3">
+        <v>20</v>
+      </c>
+      <c r="O4" s="3">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1161,10 +1249,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M4"/>
+  <autoFilter ref="A3:P4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:M3">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="A3:P3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1235,10 +1323,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1393,7 +1481,7 @@
         <v>67</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
@@ -1404,7 +1492,7 @@
         <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
@@ -1414,10 +1502,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -430,10 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*30]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阶段宝箱距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,6 +487,10 @@
       </rPr>
       <t>大宝箱灵魂奖励，有5个值，分别对应1~5把钥匙。Journey为玩家当前的行走距离</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*20]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,40 +643,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1011,8 +978,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1003,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>76</v>
@@ -1075,13 +1042,13 @@
         <v>73</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -1131,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
@@ -1175,18 +1142,18 @@
         <v>72</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1231,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
@@ -1252,7 +1219,7 @@
   <autoFilter ref="A3:P4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:P3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1323,10 +1290,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="6" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1502,10 +1469,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -12,7 +12,7 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$P$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$Q$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※rpn[journey/10];※rpn[journey/10*2];※rpn[journey/10*3];※rpn[journey/10*4];※rpn[journey/10*5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>[2维]</t>
     </r>
@@ -491,6 +487,120 @@
   </si>
   <si>
     <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[s_melee*s_attack]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[1维]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>近战/物理伤害表达式，玩家与怪物通用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>※rpn[journey/10]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※rpn[journey/10*2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※rpn[journey/10*3]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※rpn[journey/10*4]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※rpn[journey/10*5]</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +753,18 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -976,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -999,9 +1120,10 @@
     <col min="13" max="13" width="93.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>83</v>
       </c>
@@ -1048,10 +1170,13 @@
         <v>86</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -1100,8 +1225,11 @@
       <c r="P2" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1150,10 +1278,13 @@
       <c r="P3" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -1197,11 +1328,14 @@
       <c r="O4" s="3">
         <v>5</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="P4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1216,10 +1350,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:P4"/>
+  <autoFilter ref="A3:Q4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:P3">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="A3:Q3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1290,10 +1424,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1469,10 +1603,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -753,18 +753,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1353,7 +1342,7 @@
   <autoFilter ref="A3:Q4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:Q3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1424,10 +1413,10 @@
   <autoFilter ref="A3:B5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="4" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1603,10 +1592,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>reloadSpeedFormula</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(s_atkSpeed+100)/(s_atkSpeed+101))*15]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -601,6 +597,13 @@
       </rPr>
       <t>※rpn[journey/10*5]</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[(1-(s_atkSpeed+100)/(s_atkSpeed+101))*15]</t>
+  </si>
+  <si>
+    <t>※rpn[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,8 +1091,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1114,66 +1117,66 @@
   <sheetData>
     <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>0</v>
@@ -1185,37 +1188,37 @@
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
@@ -1238,54 +1241,54 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -1309,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="3">
         <v>20</v>
@@ -1318,10 +1321,15 @@
         <v>5</v>
       </c>
       <c r="P4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>94</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
@@ -1371,42 +1379,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1446,146 +1454,146 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
         <v>69</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="4755" yWindow="5895" windowWidth="26205" windowHeight="16920"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4@1_1_1;2_2_2;3_3_3;4_4_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,6 +601,9 @@
   <si>
     <t>※rpn[0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_5_5;10_20_10;20_40_20;40_40_80;120_80_80;150_150_150@10_5_5;10_20_10;20_40_20;40_40_80;120_80_80;150_150_150@10_5_5;10_20_10;20_40_20;40_40_80;120_80_80;150_150_150</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1090,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1117,55 +1116,55 @@
   <sheetData>
     <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -1188,34 +1187,34 @@
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>12</v>
@@ -1241,45 +1240,45 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -1288,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -1312,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N4" s="3">
         <v>20</v>
@@ -1321,15 +1320,15 @@
         <v>5</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
@@ -1379,42 +1378,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1454,146 +1453,146 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="5895" windowWidth="26205" windowHeight="16920"/>
+    <workbookView xWindow="4755" yWindow="5895" windowWidth="26205" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$Q$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -604,6 +604,26 @@
   </si>
   <si>
     <t>10_5_5;10_20_10;20_40_20;40_40_80;120_80_80;150_150_150@10_5_5;10_20_10;20_40_20;40_40_80;120_80_80;150_150_150@10_5_5;10_20_10;20_40_20;40_40_80;120_80_80;150_150_150</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被缴械，无法使用技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -755,7 +775,40 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1088,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1112,9 +1165,10 @@
     <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="58.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>81</v>
       </c>
@@ -1166,8 +1220,11 @@
       <c r="Q1" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R1" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
@@ -1219,8 +1276,11 @@
       <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="R2" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1272,8 +1332,11 @@
       <c r="Q3" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>88</v>
       </c>
@@ -1325,13 +1388,16 @@
       <c r="Q4" s="6" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="5"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1346,10 +1412,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Q4"/>
+  <autoFilter ref="A3:R4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:Q3">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="A3:R3">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1364,16 +1430,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C8:C9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
@@ -1416,14 +1482,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:B5"/>
+  <autoFilter ref="A3:B6"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A5">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A4:A6">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1599,10 +1673,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="5895" windowWidth="26205" windowHeight="16920" activeTab="1"/>
+    <workbookView xWindow="4755" yWindow="5895" windowWidth="26205" windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
@@ -775,40 +775,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1143,8 +1110,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1389,7 +1356,7 @@
         <v>90</v>
       </c>
       <c r="R4" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1415,7 +1382,7 @@
   <autoFilter ref="A3:R4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:R3">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1432,7 +1399,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1494,10 +1461,10 @@
   <autoFilter ref="A3:B6"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1673,10 +1640,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※rpn[skillTime*100/(s_reloadSpeed+100)]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>long[,]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,10 +471,6 @@
       </rPr>
       <t>大宝箱灵魂奖励，有5个值，分别对应1~5把钥匙。Journey为玩家当前的行走距离</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※rpn[(1-(s_motorized+100)/(s_motorized+101))*20]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,6 +615,14 @@
   </si>
   <si>
     <t>disarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[0.3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※rpn[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1110,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1137,69 +1137,69 @@
   <sheetData>
     <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>0</v>
@@ -1211,40 +1211,40 @@
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
@@ -1267,57 +1267,57 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N4" s="3">
         <v>20</v>
@@ -1350,10 +1350,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R4" s="1">
         <v>8</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
@@ -1411,50 +1411,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1494,146 +1494,146 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -12,7 +12,7 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$T$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
@@ -22,15 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,12 +622,34 @@
     <t>※rpn[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>MapDestroyTrun</t>
+  </si>
+  <si>
+    <t>最大行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少回合销毁一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,6 +715,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -738,8 +765,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -752,7 +801,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -771,11 +819,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1108,10 +1170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1135,237 +1197,261 @@
     <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="S1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="S2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="S3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <v>3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="9">
         <v>11</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="9">
         <v>23</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="9">
         <v>8</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="11">
         <v>0.1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="11">
         <v>2</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="11">
         <v>20</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="11">
         <v>5</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="11">
+        <v>5</v>
+      </c>
+      <c r="T4" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1379,18 +1465,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R4"/>
+  <autoFilter ref="A3:T4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:R3">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  <conditionalFormatting sqref="A3:T3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1410,18 +1491,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1461,10 +1542,10 @@
   <autoFilter ref="A3:B6"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1493,18 +1574,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1640,10 +1721,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -12,7 +12,7 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$T$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$U$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,6 +642,18 @@
   </si>
   <si>
     <t>多少回合销毁一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始地图行数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitRow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1170,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,9 +1207,10 @@
     <col min="16" max="16" width="58.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>80</v>
       </c>
@@ -1258,8 +1271,11 @@
       <c r="T1" s="14" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U1" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
@@ -1320,8 +1336,11 @@
       <c r="T2" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+      <c r="U2" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1382,8 +1401,11 @@
       <c r="T3" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="U3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>99</v>
       </c>
@@ -1444,13 +1466,16 @@
       <c r="T4" s="11">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -1465,9 +1490,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:T4"/>
+  <autoFilter ref="A3:U4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:T3">
+  <conditionalFormatting sqref="A3:U3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="5895" windowWidth="26205" windowHeight="16920"/>
+    <workbookView xWindow="4755" yWindow="5895" windowWidth="26205" windowHeight="16920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
-    <sheet name="tips" sheetId="2" r:id="rId2"/>
+    <sheet name="language" sheetId="2" r:id="rId2"/>
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">language!$A$3:$B$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$U$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tips!$A$3:$B$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="172">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,14 +86,6 @@
   </si>
   <si>
     <t>KEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -607,14 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被缴械，无法使用技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※rpn[0.3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,6 +638,236 @@
   </si>
   <si>
     <t>InitRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄行走没有路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有路径到达目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影</t>
+  </si>
+  <si>
+    <t>棱镜</t>
+  </si>
+  <si>
+    <t>幽灵</t>
+  </si>
+  <si>
+    <t>好战者</t>
+  </si>
+  <si>
+    <t>报警机器人A型</t>
+  </si>
+  <si>
+    <t>报警机器人B型</t>
+  </si>
+  <si>
+    <t>报警机器人C型</t>
+  </si>
+  <si>
+    <t>收割者</t>
+  </si>
+  <si>
+    <t>自爆机器人</t>
+  </si>
+  <si>
+    <t>自爆号召者</t>
+  </si>
+  <si>
+    <t>狙击手</t>
+  </si>
+  <si>
+    <t>投弹者</t>
+  </si>
+  <si>
+    <t>格斗者</t>
+  </si>
+  <si>
+    <t>胆小鬼</t>
+  </si>
+  <si>
+    <t>激光发射器</t>
+  </si>
+  <si>
+    <t>干扰发生器</t>
+  </si>
+  <si>
+    <t>恶灵</t>
+  </si>
+  <si>
+    <t>修理机器人</t>
+  </si>
+  <si>
+    <t>肿瘤体</t>
+  </si>
+  <si>
+    <t>不稳定生命体</t>
+  </si>
+  <si>
+    <t>金闪闪</t>
+  </si>
+  <si>
+    <t>恶心软泥怪</t>
+  </si>
+  <si>
+    <t>铁桶</t>
+  </si>
+  <si>
+    <t>病灶</t>
+  </si>
+  <si>
+    <t>重甲</t>
+  </si>
+  <si>
+    <t>复仇者</t>
+  </si>
+  <si>
+    <t>斗士</t>
+  </si>
+  <si>
+    <t>HeroDie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死了！死了！死了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通射击描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物常规技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armour</t>
+  </si>
+  <si>
+    <t>盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necklace</t>
+  </si>
+  <si>
+    <t>项链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木剑描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一把木剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能点名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +1052,73 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1184,8 +1464,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1207,72 +1487,73 @@
     <col min="16" max="16" width="58.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="O1" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="T1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
@@ -1295,49 +1576,49 @@
         <v>5</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="T2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.2">
@@ -1360,66 +1641,66 @@
         <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="Q3" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S3" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="T3" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
@@ -1443,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N4" s="11">
         <v>20</v>
@@ -1452,10 +1733,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R4" s="9">
         <v>8</v>
@@ -1472,7 +1753,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
@@ -1493,7 +1774,7 @@
   <autoFilter ref="A3:U4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:U3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1503,74 +1784,563 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>97</v>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:B6"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="A3:C3">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A6">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="B35:B46">
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:A46">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1600,15 +2370,15 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>13</v>
@@ -1619,137 +2389,137 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Design/原始配置表/Global.xlsx
+++ b/Design/原始配置表/Global.xlsx
@@ -12,7 +12,7 @@
     <sheet name="特征特效" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">language!$A$3:$B$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">language!$A$3:$C$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">parameter!$A$3:$U$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">特征特效!$A$3:$B$15</definedName>
   </definedNames>
@@ -26,8 +26,153 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击力</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>先攻值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>护盾（最大值）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前护盾</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A51" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>护甲</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前生命值，怪物和玩家都有</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>最大生命值，怪物和玩家都有</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>激光攻击力，玩家和怪物都有</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>激光攻击力，玩家和怪物都有</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="191">
   <si>
     <t>float[|;]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,12 +1015,85 @@
     <t>技能点名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstAtt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nshield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nhp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mhp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laser</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光线攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,6 +1165,14 @@
       <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1052,40 +1278,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1774,7 +1967,7 @@
   <autoFilter ref="A3:U4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:U3">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1782,12 +1975,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2330,20 +2523,106 @@
         <v>171</v>
       </c>
     </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:B6"/>
+  <autoFilter ref="A3:C54"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:C3">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B46">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A46">
+  <conditionalFormatting sqref="A4:A54">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2516,10 +2795,10 @@
   <autoFilter ref="A3:B15"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A4:A15">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:B3">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
